--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_18_b.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_18_b.xlsx
@@ -155,7 +155,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Anyway... that's pretty much how it goes. Don’t let your guard down!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Anyway... that's pretty much how it goes. Don't let your guard down!
 </t>
   </si>
   <si>
